--- a/data/trans_camb/P37-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P37-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.511268984724552</v>
+        <v>-7.796211196999749</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.720901436122761</v>
+        <v>-8.47568724603617</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.717633220276772</v>
+        <v>1.367453367496399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.870855421216342</v>
+        <v>-5.578769356023276</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.223981801037421</v>
+        <v>-6.949021307840207</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.946226990542778</v>
+        <v>10.00671920358511</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.654973323964986</v>
+        <v>-5.822126622690597</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.743406604227026</v>
+        <v>-6.725708889382551</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.241530269877192</v>
+        <v>7.272745474460013</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.3319926870309782</v>
+        <v>-0.01386303400407379</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.7033071934722137</v>
+        <v>-0.7960136283994237</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.63176297362455</v>
+        <v>11.92935474485591</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.461844655223737</v>
+        <v>2.01704641684227</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.1362591486322577</v>
+        <v>-0.05309966467728662</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.90892547491962</v>
+        <v>18.42621086225579</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.6621712796256424</v>
+        <v>-0.6200082195624995</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.590785924946704</v>
+        <v>-1.841151150640068</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.7165006682281</v>
+        <v>13.73256057490947</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3856691061638344</v>
+        <v>-0.3638688500239509</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3927547789570287</v>
+        <v>-0.3863063704798521</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.07062113293456543</v>
+        <v>0.05993477201005811</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2541592468937687</v>
+        <v>-0.2461480317171797</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3212054695527689</v>
+        <v>-0.3118048031009495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4292063904646296</v>
+        <v>0.435027629190357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.266806243660889</v>
+        <v>-0.2699825357305765</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3167407569778098</v>
+        <v>-0.3115448440513557</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3378310545817326</v>
+        <v>0.334838418072505</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.01990608817110512</v>
+        <v>-0.0008887700049853254</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.03864640833435096</v>
+        <v>-0.04925904613284075</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6675603826954425</v>
+        <v>0.6916352877074606</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.07900316874143255</v>
+        <v>0.1095760569484508</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.007371272980667891</v>
+        <v>-0.002442552710307779</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9724741373775513</v>
+        <v>0.9822270364923968</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.03860073125099858</v>
+        <v>-0.03475921165976788</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.086578153024405</v>
+        <v>-0.09694878933614297</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7475959824530788</v>
+        <v>0.7468602181289967</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.670814028663156</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>17.1553112632796</v>
+        <v>17.15531126327959</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6647322475650786</v>
+        <v>0.737174112648361</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.960584753240848</v>
+        <v>-2.461701913100123</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10.91293144017189</v>
+        <v>10.97123254915208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.461997501515333</v>
+        <v>-1.611659833431318</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.131882803277251</v>
+        <v>-0.9440499014260981</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.93240033317515</v>
+        <v>15.53785013402386</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8021576034392216</v>
+        <v>0.6961338766739616</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4776646984814767</v>
+        <v>-0.5828053102423306</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>14.76315058018872</v>
+        <v>14.7846823068319</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.369866294257934</v>
+        <v>7.414699404990397</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.310809178727542</v>
+        <v>3.573100997807666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.40826705576139</v>
+        <v>18.19039764111185</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.209895896420015</v>
+        <v>5.11532064235897</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.119269662945196</v>
+        <v>5.739531635959462</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.43568408734157</v>
+        <v>22.20656145811753</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.244352508589216</v>
+        <v>5.362135881939802</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.125431561839616</v>
+        <v>3.907550188477606</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>19.68618819216985</v>
+        <v>19.85515961457628</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04108546116594555</v>
+        <v>0.04673931557666976</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1884977251343713</v>
+        <v>-0.165989864822798</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7048671347048692</v>
+        <v>0.7123531688070387</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0825120271350666</v>
+        <v>-0.09210477816256055</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06485267993409113</v>
+        <v>-0.05412818951834236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8866334575322524</v>
+        <v>0.8755012063532002</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05174618301141481</v>
+        <v>0.04424568573123057</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02971989472289722</v>
+        <v>-0.03527335854694814</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.9102491603970022</v>
+        <v>0.9126206333436073</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5893671847938243</v>
+        <v>0.5954100675208652</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2654471072397494</v>
+        <v>0.2894545808434603</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.465863395282079</v>
+        <v>1.453816329538059</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3741431876128258</v>
+        <v>0.3497704571058405</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4341202007923928</v>
+        <v>0.3978751648459367</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.592740832208368</v>
+        <v>1.575145102812552</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3826215751092642</v>
+        <v>0.3856952465038301</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2993914204809276</v>
+        <v>0.2756047808265338</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.426905846524449</v>
+        <v>1.452027074528121</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.794436300411485</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>24.83124829048436</v>
+        <v>24.83124829048437</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7.053788041492425</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.74431791769904</v>
+        <v>4.659507703271219</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.971063260078065</v>
+        <v>1.950728459786546</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18.6107318597873</v>
+        <v>18.59308518826966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.260886040640421</v>
+        <v>2.434091286944657</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9738030898633405</v>
+        <v>-0.589360802647716</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>21.33625144786036</v>
+        <v>21.49238620289799</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.544460166871013</v>
+        <v>4.609634113240165</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.519922111683329</v>
+        <v>1.659276196138735</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>21.22336865943357</v>
+        <v>20.99176534916213</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.49608427491115</v>
+        <v>11.48266283978472</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.200743253311439</v>
+        <v>8.861159489018771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25.77791503308272</v>
+        <v>25.6062372414261</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.028408657177488</v>
+        <v>9.16609111369948</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.156515505355917</v>
+        <v>6.089156520136647</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>28.35621245585993</v>
+        <v>28.12690029637133</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.29213079721209</v>
+        <v>9.447341791809489</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.166023828847889</v>
+        <v>6.286408585094643</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>26.07919018712644</v>
+        <v>25.86425706354456</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.2234842983599536</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.985872464075685</v>
+        <v>1.985872464075686</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5998694556071561</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3924932410796179</v>
+        <v>0.3730459683891812</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1453975991726227</v>
+        <v>0.1642826201818971</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.480771566745876</v>
+        <v>1.496795126586721</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1500459405784541</v>
+        <v>0.1641752449488389</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06874646769398358</v>
+        <v>-0.0472839663598862</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.471135124704585</v>
+        <v>1.502656575333659</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3617255368471171</v>
+        <v>0.3625605727922908</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1181270003531987</v>
+        <v>0.1220384834815617</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.632059935548137</v>
+        <v>1.643186155757807</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.150098241895075</v>
+        <v>1.184712197750961</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8137086468057514</v>
+        <v>0.9363814109123411</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.653481274075344</v>
+        <v>2.708422807204362</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.811216402449748</v>
+        <v>0.8083174945788331</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5533334799855374</v>
+        <v>0.5341511236615111</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.645314900860421</v>
+        <v>2.618738244866163</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8546243629287588</v>
+        <v>0.8746377877714224</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5650006142631804</v>
+        <v>0.578319431485161</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.427836483284255</v>
+        <v>2.422071907436912</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7079792886699586</v>
+        <v>1.339439751949777</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.575054694461371</v>
+        <v>1.460448935743721</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.00590865002539</v>
+        <v>16.31121909195886</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.238364822897841</v>
+        <v>-1.087495980310926</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1570054650419453</v>
+        <v>0.366030215588544</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.98004267200075</v>
+        <v>17.97807817810759</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.336946669226784</v>
+        <v>1.485947781954344</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.332567551260956</v>
+        <v>2.827422038077955</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>18.33181215076119</v>
+        <v>18.32723034616947</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.84078002056638</v>
+        <v>11.20684804968915</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.56888948850733</v>
+        <v>10.92925540217022</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24.79460313346674</v>
+        <v>24.89105035889446</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.07626619751199</v>
+        <v>9.852323148837332</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.29319531065943</v>
+        <v>10.89908313045452</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.95777954267196</v>
+        <v>27.38306518288226</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.589993732861966</v>
+        <v>8.925453326859744</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.789602418047439</v>
+        <v>9.790687445101955</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>24.78106169120271</v>
+        <v>24.73841224946819</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.4601047167037921</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.637847515150268</v>
+        <v>1.637847515150267</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03814426793734289</v>
+        <v>0.07153870255407546</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.09249617253436002</v>
+        <v>0.104725440164794</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.9916902195585012</v>
+        <v>0.9960048224246939</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0748333575993049</v>
+        <v>-0.07543752344038719</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.004772167253948266</v>
+        <v>0.02019657203915047</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.006728417005768</v>
+        <v>1.069194083846735</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09623425117893977</v>
+        <v>0.09949030057883997</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1562861754715484</v>
+        <v>0.1806718949264153</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.182085947077792</v>
+        <v>1.198133971089818</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9957226936011994</v>
+        <v>1.021669512357213</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.033850847940363</v>
+        <v>1.028542220810251</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.328057978948209</v>
+        <v>2.342992412985391</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9554245558484115</v>
+        <v>0.9176302875413145</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.100443849597629</v>
+        <v>1.111807126161588</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.614358536557668</v>
+        <v>2.772082903895102</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7823447824998653</v>
+        <v>0.7781053907159589</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8670484782449744</v>
+        <v>0.8657051724493426</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.189911410464192</v>
+        <v>2.248985706040796</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.068356236762792</v>
+        <v>2.000339982382827</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1307292225536759</v>
+        <v>0.297478576594142</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15.45329597155684</v>
+        <v>15.23822281519476</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4695586089376272</v>
+        <v>0.4944909401307995</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.3302114006882738</v>
+        <v>-0.3352009670285738</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>18.15681903740095</v>
+        <v>18.11217228949156</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.712519211214917</v>
+        <v>1.686661594025691</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4086342173411903</v>
+        <v>0.4617930844579209</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>17.26106614586783</v>
+        <v>17.41820487974733</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.753173774846552</v>
+        <v>5.612732948407246</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.504940371338123</v>
+        <v>3.723958098945613</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19.12333036521208</v>
+        <v>19.22365042489723</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.344767411977967</v>
+        <v>4.116936309638988</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.40952883083445</v>
+        <v>3.44937466499803</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>21.56864052506673</v>
+        <v>21.90509828028809</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.331922172492476</v>
+        <v>4.275933109157722</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.905150291198456</v>
+        <v>2.970182324582919</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.03395225592072</v>
+        <v>20.03265613605932</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1350484965325735</v>
+        <v>0.1402237947433455</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.009621133628103766</v>
+        <v>0.01997090215069707</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.047674195412194</v>
+        <v>1.040701185054979</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.02675057614960714</v>
+        <v>0.02942149196346151</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01968188202357179</v>
+        <v>-0.02172103488321799</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.068689930959484</v>
+        <v>1.064583411176991</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1106175085639388</v>
+        <v>0.1105896617585221</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02709117274648918</v>
+        <v>0.02985921760795015</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.109307433514116</v>
+        <v>1.119770847798802</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4400833521671386</v>
+        <v>0.4384515705163919</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2703571511341779</v>
+        <v>0.2848599609402399</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.480730875052959</v>
+        <v>1.491606216194926</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2896795760253302</v>
+        <v>0.2751617298092005</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2290566481234393</v>
+        <v>0.2228365855540138</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.438011093869383</v>
+        <v>1.475109845816761</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.304475544886508</v>
+        <v>0.3009555737624063</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2067668908937173</v>
+        <v>0.208154078153488</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.40834767845594</v>
+        <v>1.413255065006259</v>
       </c>
     </row>
     <row r="34">
